--- a/classfiers/nano/randomForest/nearmiss/nano-randomForest-nearmiss-results.xlsx
+++ b/classfiers/nano/randomForest/nearmiss/nano-randomForest-nearmiss-results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9947368421052631</v>
+        <v>0.9889196675900277</v>
       </c>
     </row>
     <row r="4">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9631578947368421</v>
+        <v>0.881578947368421</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9740890688259108</v>
+        <v>0.9698412698412697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9094736842105263</v>
+        <v>0.9789473684210526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9349282296650717</v>
+        <v>0.9737837837837839</v>
       </c>
       <c r="E7" t="n">
-        <v>0.991578947368421</v>
+        <v>0.9740997229916898</v>
       </c>
     </row>
   </sheetData>
